--- a/biology/Botanique/Panicum_turgidum/Panicum_turgidum.xlsx
+++ b/biology/Botanique/Panicum_turgidum/Panicum_turgidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicum turgidum est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae. Abondantes dans les régions arides du paléarctique, cette graminée sauvage constitue une ressource alimentaire importante pour les chameaux.
 Noms vernaculaires
-Taman ou tuman (Soudan), afezu (Sahel nigérien), guinchi (Sahara oriental), thaman (Koweït), markouba (Mauritanie), du-ghasi (Somalie)[2].
+Taman ou tuman (Soudan), afezu (Sahel nigérien), guinchi (Sahara oriental), thaman (Koweït), markouba (Mauritanie), du-ghasi (Somalie).
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Panicum turgidum est une plante vivace herbacée, poussant en touffes denses, qui présente des tiges (chaumes) ligneuses aux entrenœuds pleins. Celles-ci peuvent atteindre de 40 à 100 cm de long et de 1 à 6 mm de diamètre. Les feuilles, coriaces raides, glauques, ont un limbe caduc à partir de la ligule. Celle-ci est une membrane ciliée. Le limbe foliaire mesure de 2 à 15 cm de long sur 1 à 6 mm de large et présente un apex piquant[3].
-Les racines présentent un aspect feutré dû à leur revêtement de poils radicaux auxquels adhère le sable fin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Panicum turgidum est une plante vivace herbacée, poussant en touffes denses, qui présente des tiges (chaumes) ligneuses aux entrenœuds pleins. Celles-ci peuvent atteindre de 40 à 100 cm de long et de 1 à 6 mm de diamètre. Les feuilles, coriaces raides, glauques, ont un limbe caduc à partir de la ligule. Celle-ci est une membrane ciliée. Le limbe foliaire mesure de 2 à 15 cm de long sur 1 à 6 mm de large et présente un apex piquant.
+Les racines présentent un aspect feutré dû à leur revêtement de poils radicaux auxquels adhère le sable fin.
 L'inflorescence est une panicule terminale, ouverte, de 15 cm de long environ, portant des épillets solitaires, pédicellés.
-Les épillets fertiles, de forme ovale, légèrement comprimés dorsalement, sont insérés entre deux glumes semblables entre elles et atteignant l'apex des fleurons. Les épillets, qui mesurent de 3,4 à 4,5 cm de long, comprennent deux fleurs : un fleuron basal stérile et un fleuron fertile, sans extension du rachillet.  A maturité, ils se détachent entiers[3]. 
+Les épillets fertiles, de forme ovale, légèrement comprimés dorsalement, sont insérés entre deux glumes semblables entre elles et atteignant l'apex des fleurons. Les épillets, qui mesurent de 3,4 à 4,5 cm de long, comprennent deux fleurs : un fleuron basal stérile et un fleuron fertile, sans extension du rachillet.  A maturité, ils se détachent entiers. 
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Écologie et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est très abondante dans les déserts du Sahara, de la péninsule arabique, d'Iran et du Pakistan. Elle apprécie les savanes désertiques, les oueds sablonneux-limoneux et pierreux, à l'étage tropical, exceptionnellement à l'étage  méditerranéen inférieur jusqu'à 2100 m d'altitude[4]. 
-Plus spécifiquement, elle est présente en Algérie, au Bénin, au Burkina Faso, au Tchad, au Congo, à Chypre, à Djibouti, en Égypte, en Érythrée, en Éthiopie, dans les États du Golfe, en Inde, en Iran, en Irak, au Koweït, au Liban et en Syrie, en Libye, au Mali, en Mauritanie, au Maroc, au Niger, à Oman, au Pakistan, en Palestine, en Arabie Saoudite, au Sénégal, à Socotra, en Somalie, au Soudan, en Tunisie, au Sahara occidental, et au Yémen[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est très abondante dans les déserts du Sahara, de la péninsule arabique, d'Iran et du Pakistan. Elle apprécie les savanes désertiques, les oueds sablonneux-limoneux et pierreux, à l'étage tropical, exceptionnellement à l'étage  méditerranéen inférieur jusqu'à 2100 m d'altitude. 
+Plus spécifiquement, elle est présente en Algérie, au Bénin, au Burkina Faso, au Tchad, au Congo, à Chypre, à Djibouti, en Égypte, en Érythrée, en Éthiopie, dans les États du Golfe, en Inde, en Iran, en Irak, au Koweït, au Liban et en Syrie, en Libye, au Mali, en Mauritanie, au Maroc, au Niger, à Oman, au Pakistan, en Palestine, en Arabie Saoudite, au Sénégal, à Socotra, en Somalie, au Soudan, en Tunisie, au Sahara occidental, et au Yémen.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les grains (botaniquement nommés caryopses) sont récoltés et consommés par les Touareg comme ceux de Stipagrostis pungens ; les cendres des racines donnent une sorte de natron, dont les Touareg additionnent le tabac  à chiquer ; les vieilles tiges sèches pulvérisées et tamisées donnent une poudre utilisée pour le pansement des blessures. La plante est un élément important de la nourriture des chameaux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grains (botaniquement nommés caryopses) sont récoltés et consommés par les Touareg comme ceux de Stipagrostis pungens ; les cendres des racines donnent une sorte de natron, dont les Touareg additionnent le tabac  à chiquer ; les vieilles tiges sèches pulvérisées et tamisées donnent une poudre utilisée pour le pansement des blessures. La plante est un élément important de la nourriture des chameaux.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 juin 2017)[6] : 	
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 juin 2017) : 	
 Panicum frutescens Mez
 Panicum minutiflorum Fig. &amp; De Not., nom. illeg.
 Panicum neglectum Roem. &amp; Schult.
